--- a/OCRView/変数表.xlsx
+++ b/OCRView/変数表.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonScript\RPAScript\OCRView\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\もちねこ\Desktop\GitHub\RPAScript\OCRView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B37265-21FD-49F8-9FEC-1389812BE254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA64ED46-C342-4318-A733-455E1D8DF51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{571E304F-E246-4E92-BC7E-C2AF79269F6A}"/>
+    <workbookView xWindow="12030" yWindow="345" windowWidth="16155" windowHeight="14310" activeTab="3" xr2:uid="{571E304F-E246-4E92-BC7E-C2AF79269F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="ViewGUI" sheetId="1" r:id="rId1"/>
     <sheet name="TKCV2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TKCV2!$A$1:$G$1</definedName>
@@ -28,12 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="208">
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
@@ -1274,6 +1273,54 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を編集する</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCRで読み込む</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを成型する</t>
+    <rPh sb="4" eb="6">
+      <t>セイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データから自動仕分けする</t>
+    <rPh sb="5" eb="9">
+      <t>ジドウシワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウを作る</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使いまわす</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2809,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02528F07-5ACB-4461-B065-7C1FD8C9405E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
@@ -3348,4 +3395,80 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B9A679-EE17-4C00-8964-E37201AA266D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F114D6-A564-4754-B9B9-2E53066B0A3B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>